--- a/grade-workbook-102.xlsx
+++ b/grade-workbook-102.xlsx
@@ -206,9 +206,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -385,11 +386,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,7 +402,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,10 +663,10 @@
   <dimension ref="A1:BI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.91"/>
   </cols>
@@ -957,12 +958,12 @@
         <v>33</v>
       </c>
       <c r="C4" s="7" t="n">
-        <f aca="false">(SUM(B17:M17)-SMALL(B17:M17,1)-SMALL(B17:M17,2)-SMALL(B17:M17,3))/(SUM(B16:M16)-30)*100</f>
-        <v>97.7777777777778</v>
+        <f aca="false">(SUM(B17:M17)-SMALL(B17:M17,1)-SMALL(B17:M17,2))/(SUM(B16:M16)-20)*100</f>
+        <v>97</v>
       </c>
       <c r="D4" s="8" t="n">
         <f aca="false">C4*0.4</f>
-        <v>39.1111111111111</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1012,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="n">
         <f aca="false">SUM(D3:D7)</f>
-        <v>89.1011257096513</v>
+        <v>88.7900145985402</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
